--- a/data/respirometry/deep/final_rates/50_rates.xlsx
+++ b/data/respirometry/deep/final_rates/50_rates.xlsx
@@ -578,16 +578,16 @@
         </is>
       </c>
       <c r="T2">
-        <v>0.15444</v>
+        <v>0.1405756097560976</v>
       </c>
       <c r="V2">
         <v>0.000247847478474785</v>
       </c>
       <c r="Z2">
-        <v>-0.08000057693543264</v>
+        <v>-0.0728187638146726</v>
       </c>
       <c r="AB2">
-        <v>-322.7814841116956</v>
+        <v>-293.8047393614331</v>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="AD2">
-        <v>-322.7814841116956</v>
+        <v>-293.8047393614331</v>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
@@ -665,16 +665,16 @@
         </is>
       </c>
       <c r="T3">
-        <v>0.15444</v>
+        <v>0.144009756097561</v>
       </c>
       <c r="V3">
         <v>0.000151796696538394</v>
       </c>
       <c r="Z3">
-        <v>-0.1226515196022755</v>
+        <v>-0.1143681392315392</v>
       </c>
       <c r="AB3">
-        <v>-807.9986086604539</v>
+        <v>-753.4296980080328</v>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="AD3">
-        <v>-807.9986086604539</v>
+        <v>-753.4296980080328</v>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
@@ -752,16 +752,16 @@
         </is>
       </c>
       <c r="T4">
-        <v>0.15444</v>
+        <v>0.1462634146341464</v>
       </c>
       <c r="V4">
         <v>0.0001561017395888245</v>
       </c>
       <c r="Z4">
-        <v>-0.0974221315740925</v>
+        <v>-0.09226426848590945</v>
       </c>
       <c r="AB4">
-        <v>-624.0938238786102</v>
+        <v>-591.05214797052</v>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
@@ -769,7 +769,7 @@
         </is>
       </c>
       <c r="AD4">
-        <v>-624.0938238786102</v>
+        <v>-591.05214797052</v>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
@@ -839,16 +839,16 @@
         </is>
       </c>
       <c r="T5">
-        <v>0.15444</v>
+        <v>0.1500390243902439</v>
       </c>
       <c r="V5">
         <v>0.0001601212440695836</v>
       </c>
       <c r="Z5">
-        <v>-0.07528906487317155</v>
+        <v>-0.07314360166293993</v>
       </c>
       <c r="AB5">
-        <v>-470.2003491832309</v>
+        <v>-456.8013575459984</v>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
@@ -856,7 +856,7 @@
         </is>
       </c>
       <c r="AD5">
-        <v>-470.2003491832309</v>
+        <v>-456.8013575459984</v>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
@@ -926,16 +926,16 @@
         </is>
       </c>
       <c r="T6">
-        <v>0.15444</v>
+        <v>0.1463707317073171</v>
       </c>
       <c r="V6">
         <v>0.0001600773150588649</v>
       </c>
       <c r="Z6">
-        <v>-0.1026469130891308</v>
+        <v>-0.09728375923564792</v>
       </c>
       <c r="AB6">
-        <v>-641.2333505930225</v>
+        <v>-607.7298285511221</v>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         </is>
       </c>
       <c r="AD6">
-        <v>-641.2333505930225</v>
+        <v>-607.7298285511221</v>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
@@ -1013,16 +1013,16 @@
         </is>
       </c>
       <c r="T7">
-        <v>0.15444</v>
+        <v>0.1465658536585366</v>
       </c>
       <c r="V7">
         <v>0.0002004041468986119</v>
       </c>
       <c r="Z7">
-        <v>-0.1183235472317491</v>
+        <v>-0.1122908035996341</v>
       </c>
       <c r="AB7">
-        <v>-590.4246447136205</v>
+        <v>-560.321756497604</v>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         </is>
       </c>
       <c r="AD7">
-        <v>-590.4246447136205</v>
+        <v>-560.321756497604</v>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
@@ -1100,16 +1100,16 @@
         </is>
       </c>
       <c r="T8">
-        <v>0.15444</v>
+        <v>0.1449658536585366</v>
       </c>
       <c r="V8">
         <v>0.0002479133719908628</v>
       </c>
       <c r="Z8">
-        <v>-0.09171792911931727</v>
+        <v>-0.08609147818295118</v>
       </c>
       <c r="AB8">
-        <v>-369.9595886368633</v>
+        <v>-347.2643588830868</v>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
@@ -1117,7 +1117,7 @@
         </is>
       </c>
       <c r="AD8">
-        <v>-369.9595886368633</v>
+        <v>-347.2643588830868</v>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
@@ -1187,7 +1187,7 @@
         </is>
       </c>
       <c r="T9">
-        <v>0.15444</v>
+        <v>0.1544</v>
       </c>
       <c r="V9">
         <v>0</v>
@@ -1268,16 +1268,16 @@
         </is>
       </c>
       <c r="T10">
-        <v>0.15444</v>
+        <v>0.1405756097560976</v>
       </c>
       <c r="V10">
         <v>0.000247847478474785</v>
       </c>
       <c r="Z10">
-        <v>0.06471132321147512</v>
+        <v>0.05890205722984346</v>
       </c>
       <c r="AB10">
-        <v>261.0933288879862</v>
+        <v>237.6544542325692</v>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
@@ -1285,7 +1285,7 @@
         </is>
       </c>
       <c r="AD10">
-        <v>261.0933288879862</v>
+        <v>237.6544542325692</v>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
@@ -1355,16 +1355,16 @@
         </is>
       </c>
       <c r="T11">
-        <v>0.15444</v>
+        <v>0.144009756097561</v>
       </c>
       <c r="V11">
         <v>0.000151796696538394</v>
       </c>
       <c r="Z11">
-        <v>0.06147587688600897</v>
+        <v>0.05732404840868841</v>
       </c>
       <c r="AB11">
-        <v>404.9882394539453</v>
+        <v>377.6369955072732</v>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="AD11">
-        <v>404.9882394539453</v>
+        <v>377.6369955072732</v>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
@@ -1442,16 +1442,16 @@
         </is>
       </c>
       <c r="T12">
-        <v>0.15444</v>
+        <v>0.1462634146341464</v>
       </c>
       <c r="V12">
         <v>0.0001561017395888245</v>
       </c>
       <c r="Z12">
-        <v>0.03923444226352996</v>
+        <v>0.03715723579856357</v>
       </c>
       <c r="AB12">
-        <v>251.3389175987043</v>
+        <v>238.0321698940484</v>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="AD12">
-        <v>251.3389175987043</v>
+        <v>238.0321698940484</v>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
@@ -1529,16 +1529,16 @@
         </is>
       </c>
       <c r="T13">
-        <v>0.15444</v>
+        <v>0.1500390243902439</v>
       </c>
       <c r="V13">
         <v>0.0001601212440695836</v>
       </c>
       <c r="Z13">
-        <v>0.07509925241138214</v>
+        <v>0.07295919816265506</v>
       </c>
       <c r="AB13">
-        <v>469.0149195864753</v>
+        <v>455.6497083606802</v>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="AD13">
-        <v>469.0149195864753</v>
+        <v>455.6497083606802</v>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
@@ -1616,16 +1616,16 @@
         </is>
       </c>
       <c r="T14">
-        <v>0.15444</v>
+        <v>0.1463707317073171</v>
       </c>
       <c r="V14">
         <v>0.0001600773150588649</v>
       </c>
       <c r="Z14">
-        <v>-0.01227305825225956</v>
+        <v>-0.01163180857724525</v>
       </c>
       <c r="AB14">
-        <v>-76.66956587662911</v>
+        <v>-72.66369112305458</v>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         </is>
       </c>
       <c r="AD14">
-        <v>-76.66956587662911</v>
+        <v>-72.66369112305458</v>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
@@ -1703,16 +1703,16 @@
         </is>
       </c>
       <c r="T15">
-        <v>0.15444</v>
+        <v>0.1465658536585366</v>
       </c>
       <c r="V15">
         <v>0.0002004041468986119</v>
       </c>
       <c r="Z15">
-        <v>0.08810090241411456</v>
+        <v>0.08360906481748334</v>
       </c>
       <c r="AB15">
-        <v>439.6161645232143</v>
+        <v>417.2022690717208</v>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
@@ -1720,7 +1720,7 @@
         </is>
       </c>
       <c r="AD15">
-        <v>439.6161645232143</v>
+        <v>417.2022690717208</v>
       </c>
       <c r="AE15" t="inlineStr">
         <is>
@@ -1790,16 +1790,16 @@
         </is>
       </c>
       <c r="T16">
-        <v>0.15444</v>
+        <v>0.1449658536585366</v>
       </c>
       <c r="V16">
         <v>0.0002479133719908628</v>
       </c>
       <c r="Z16">
-        <v>0.09630207300538732</v>
+        <v>0.09039440703388167</v>
       </c>
       <c r="AB16">
-        <v>388.4504987852638</v>
+        <v>364.6209412101147</v>
       </c>
       <c r="AC16" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
         </is>
       </c>
       <c r="AD16">
-        <v>388.4504987852638</v>
+        <v>364.6209412101147</v>
       </c>
       <c r="AE16" t="inlineStr">
         <is>
@@ -1877,13 +1877,13 @@
         </is>
       </c>
       <c r="T17">
-        <v>0.15444</v>
+        <v>0.1544</v>
       </c>
       <c r="V17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>-0.0005551828892719469</v>
+        <v>-0.0005550390967598329</v>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
